--- a/help/Boolsche Logik.xlsx
+++ b/help/Boolsche Logik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>DEZ</t>
   </si>
@@ -56,7 +56,13 @@
     <t>Nachbar</t>
   </si>
   <si>
+    <t>Inputnum</t>
+  </si>
+  <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>OLD</t>
@@ -396,7 +402,7 @@
   <fonts count="4">
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -411,7 +417,6 @@
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -562,7 +567,7 @@
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="0" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -585,6 +590,14 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -601,9 +614,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
@@ -1595,7 +1605,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{008E006F-0026-4E8E-B070-00FF00490076}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00AE007D-00DD-4ED4-ADB4-006B009A005F}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <fill>
@@ -1609,7 +1619,7 @@
           <xm:sqref>B34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00A00051-0006-4DE5-91BB-0007004800EF}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00B9009E-00FB-47AA-A1F8-002100D20004}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <fill>
@@ -1623,7 +1633,7 @@
           <xm:sqref>B34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00AB002C-00C6-42EC-A59F-008900E8003B}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0047002D-0016-401B-8383-0047007900FD}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <fill>
@@ -1637,12 +1647,11 @@
           <xm:sqref>C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="equal" rank="0" text="" id="{007C00B0-00B7-4406-937C-00FB007200E1}">
+          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="equal" rank="0" text="" id="{00ED0058-0047-408E-BB18-00D0000C0067}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
                 <sz val="11.000000"/>
-                <color indexed="64"/>
                 <name val="Calibri"/>
               </font>
             </x14:dxf>
@@ -1662,7 +1671,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="E52" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="J1" zoomScale="100" workbookViewId="0">
       <selection activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1737,8 +1746,11 @@
       <c r="I3" s="2">
         <v>8</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>0</v>
@@ -1754,365 +1766,421 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B9" si="0">VALUE((MID($O4,1,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C9" si="1">VALUE((MID($O4,2,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D9" si="2">VALUE((MID($O4,3,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E9" si="3">VALUE((MID($O4,4,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F9" si="4">VALUE((MID($O4,5,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G9" si="5">VALUE((MID($O4,6,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H9" si="6">VALUE((MID($O4,7,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I9" si="7">VALUE((MID($O4,8,1)))</f>
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L9" si="0">SUM(B4:J4)</f>
-        <v>4</v>
+        <f t="shared" ref="L4:L9" si="8">SUM(B4:J4)</f>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M9" si="1">I4+H4*2+G4*4+F4*8+E4*16+D4*32+C4*64+B4*128</f>
-        <v>149</v>
-      </c>
-      <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N9" si="2">DEC2HEX(M4)</f>
-        <v>95</v>
+        <f t="shared" ref="M4:M9" si="9">_xlfn.DECIMAL(N4,16)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O9" si="3">DEC2BIN(M4,8)</f>
-        <v>10010101</v>
+        <f t="shared" ref="O4:O9" si="10">DEC2BIN(M4,8)</f>
+        <v>00000001</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="N5" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>2A</v>
+      <c r="N5" s="8">
+        <v>3</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>00101010</v>
+        <f t="shared" si="10"/>
+        <v>00000011</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N6" s="8">
+        <v>6</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>01010100</v>
+        <f t="shared" si="10"/>
+        <v>00000110</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="N7" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>8A</v>
+      <c r="M7">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="N7" s="8">
+        <v>91</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>10001010</v>
+        <f t="shared" si="10"/>
+        <v>10010001</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>28</v>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="N8" s="8">
+        <v>44</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>00101000</v>
+        <f t="shared" si="10"/>
+        <v>01000100</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="9"/>
+        <v>134</v>
+      </c>
+      <c r="N9" s="7">
+        <v>86</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>00010100</v>
+        <f t="shared" si="10"/>
+        <v>10000110</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:B11" si="11">VALUE((MID($O10,1,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:C11" si="12">VALUE((MID($O10,2,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="13">VALUE((MID($O10,3,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ref="E10:E11" si="14">VALUE((MID($O10,4,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F11" si="15">VALUE((MID($O10,5,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10:G11" si="16">VALUE((MID($O10,6,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10:H11" si="17">VALUE((MID($O10,7,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I11" si="18">VALUE((MID($O10,8,1)))</f>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ref="L10:L11" si="4">SUM(B10:J10)</f>
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" ref="M10:M22" si="5">I10+H10*2+G10*4+F10*8+E10*16+D10*32+C10*64+B10*128</f>
-        <v>41</v>
-      </c>
-      <c r="N10" s="3" t="str">
-        <f t="shared" ref="N10:N22" si="6">DEC2HEX(M10)</f>
-        <v>29</v>
+        <f t="shared" ref="L10:L11" si="19">SUM(B10:J10)</f>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M11" si="20">_xlfn.DECIMAL(N10,16)</f>
+        <v>12</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" ref="O10:O22" si="7">DEC2BIN(M10,8)</f>
-        <v>00101001</v>
+        <f t="shared" ref="O10:O22" si="21">DEC2BIN(M10,8)</f>
+        <v>00001100</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="B11" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="N11" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>18</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>01010010</v>
+        <f t="shared" si="21"/>
+        <v>00011000</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <f>SUM(B4:B11)</f>
@@ -2120,23 +2188,23 @@
       </c>
       <c r="C12" s="2">
         <f>SUM(C4:C11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(D4:D11)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E4:E11)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <f>SUM(F4:F11)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
         <f>SUM(G4:G11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
         <f>SUM(H4:H11)</f>
@@ -2144,49 +2212,56 @@
       </c>
       <c r="I12" s="2">
         <f>SUM(I4:I11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <f>VALUE((MID($O14,1,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <f>VALUE((MID($O14,2,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f>VALUE((MID($O14,3,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f>VALUE((MID($O14,4,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>VALUE((MID($O14,5,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f>VALUE((MID($O14,6,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f>VALUE((MID($O14,7,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f>VALUE((MID($O14,8,1)))</f>
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="N14" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f>_xlfn.DECIMAL(N14,16)</f>
+        <v>34</v>
+      </c>
+      <c r="N14" s="3">
+        <v>22</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>00010100</v>
+        <f t="shared" si="21"/>
+        <v>00100010</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -2199,7 +2274,7 @@
       </c>
       <c r="C16" s="2">
         <f>IF(C12=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <f>IF(D12=2,1,0)</f>
@@ -2207,11 +2282,11 @@
       </c>
       <c r="E16" s="2">
         <f>IF(E12=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <f>IF(F12=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f>IF(G12=2,1,0)</f>
@@ -2223,45 +2298,45 @@
       </c>
       <c r="I16" s="2">
         <f>IF(I12=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="5"/>
-        <v>193</v>
+        <f t="shared" ref="M16:M22" si="22">I16+H16*2+G16*4+F16*8+E16*16+D16*32+C16*64+B16*128</f>
+        <v>152</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>C1</v>
+        <f t="shared" ref="N16:N22" si="23">DEC2HEX(M16)</f>
+        <v>98</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>11000001</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="8">
+        <f t="shared" si="21"/>
+        <v>10011000</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="10">
         <v>5</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="10">
         <v>4</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="10">
         <v>3</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="10">
         <v>2</v>
       </c>
-      <c r="W16" s="8">
-        <v>1</v>
-      </c>
-      <c r="X16" s="9">
+      <c r="W16" s="10">
+        <v>1</v>
+      </c>
+      <c r="X16" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <f>IF(B12=3,1,0)</f>
@@ -2273,7 +2348,7 @@
       </c>
       <c r="D17" s="2">
         <f>IF(D12=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
         <f>IF(E12=3,1,0)</f>
@@ -2285,7 +2360,7 @@
       </c>
       <c r="G17" s="2">
         <f>IF(G12=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
         <f>IF(H12=3,1,0)</f>
@@ -2293,39 +2368,39 @@
       </c>
       <c r="I17" s="2">
         <f>IF(I12=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>00100110</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17" s="11" t="s">
+        <f t="shared" si="21"/>
+        <v>00000011</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="12" t="s">
+      <c r="V17" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <f>B59*1</f>
@@ -2333,7 +2408,7 @@
       </c>
       <c r="C19" s="2">
         <f>C59*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <f>D59*1</f>
@@ -2341,11 +2416,11 @@
       </c>
       <c r="E19" s="2">
         <f>E59*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <f>F59*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <f>G59*1</f>
@@ -2357,24 +2432,24 @@
       </c>
       <c r="I19" s="2">
         <f>I59*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="5"/>
-        <v>193</v>
+        <f t="shared" si="22"/>
+        <v>152</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>C1</v>
+        <f t="shared" si="23"/>
+        <v>98</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>11000001</v>
+        <f t="shared" si="21"/>
+        <v>10011000</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
         <f>B65*1</f>
@@ -2386,7 +2461,7 @@
       </c>
       <c r="D20" s="2">
         <f>D65*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <f>E65*1</f>
@@ -2398,7 +2473,7 @@
       </c>
       <c r="G20" s="2">
         <f>G65*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
         <f>H65*1</f>
@@ -2406,24 +2481,24 @@
       </c>
       <c r="I20" s="2">
         <f>I65*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>00100110</v>
+        <f t="shared" si="21"/>
+        <v>00000011</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <f>B14*B19+B20</f>
@@ -2435,7 +2510,7 @@
       </c>
       <c r="D22" s="2">
         <f>D14*D19+D20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
         <f>E14*E19+E20</f>
@@ -2447,7 +2522,7 @@
       </c>
       <c r="G22" s="2">
         <f>G14*G19+G20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <f>H14*H19+H20</f>
@@ -2455,60 +2530,60 @@
       </c>
       <c r="I22" s="2">
         <f>I14*I19+I20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>00100110</v>
+        <f t="shared" si="21"/>
+        <v>00000011</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="M25" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="Q25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="S25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -2517,7 +2592,7 @@
       </c>
       <c r="B26" s="2" t="b">
         <f>_xlfn.XOR(B4,B5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="b">
         <f>_xlfn.XOR(C4,C5)</f>
@@ -2525,19 +2600,19 @@
       </c>
       <c r="D26" s="2" t="b">
         <f>_xlfn.XOR(D4,D5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="b">
         <f>_xlfn.XOR(E4,E5)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="b">
         <f>_xlfn.XOR(F4,F5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2" t="b">
         <f>_xlfn.XOR(G4,G5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="b">
         <f>_xlfn.XOR(H4,H5)</f>
@@ -2545,36 +2620,36 @@
       </c>
       <c r="I26" s="2" t="b">
         <f>_xlfn.XOR(I4,I5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ref="Q26:Q65" si="24">DEC2HEX(I26+H26*2+G26*4+F26*8+E26*16+D26*32+C26*64+B26*128)</f>
+        <v>2</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="15">
-        <v>1</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="str">
-        <f>DEC2HEX(I26+H26*2+G26*4+F26*8+E26*16+D26*32+C26*64+B26*128)</f>
-        <v>BF</v>
-      </c>
-      <c r="R26" s="14"/>
-      <c r="S26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
@@ -2586,9 +2661,9 @@
       </c>
       <c r="C27" s="2" t="b">
         <f>_xlfn.XOR(C6,C7)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="b">
         <f>_xlfn.XOR(D6,D7)</f>
         <v>0</v>
       </c>
@@ -2598,53 +2673,53 @@
       </c>
       <c r="F27" s="2" t="b">
         <f>_xlfn.XOR(F6,F7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2" t="b">
         <f>_xlfn.XOR(G6,G7)</f>
         <v>1</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="2" t="b">
         <f>_xlfn.XOR(H6,H7)</f>
         <v>1</v>
       </c>
       <c r="I27" s="2" t="b">
         <f>_xlfn.XOR(I6,I7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="16">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="15">
-        <v>2</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" t="str">
-        <f>DEC2HEX(I27+H27*2+G27*4+F27*8+E27*16+D27*32+C27*64+B27*128)</f>
-        <v>DE</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="2" t="s">
@@ -2652,7 +2727,7 @@
       </c>
       <c r="B28" s="2" t="b">
         <f>AND(B26,B27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="b">
         <f>AND(C26,C27)</f>
@@ -2664,15 +2739,15 @@
       </c>
       <c r="E28" s="2" t="b">
         <f>AND(E26,E27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="b">
         <f>AND(F26,F27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="b">
         <f>AND(G26,G27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="b">
         <f>AND(H26,H27)</f>
@@ -2683,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
@@ -2694,27 +2769,27 @@
       <c r="N28" s="2">
         <v>2</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="16">
         <v>5</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q28" t="str">
-        <f>DEC2HEX(I28+H28*2+G28*4+F28*8+E28*16+D28*32+C28*64+B28*128)</f>
-        <v>9E</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>46</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="2" t="s">
@@ -2722,19 +2797,19 @@
       </c>
       <c r="B29" s="2" t="b">
         <f>_xlfn.XOR(B26,B27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="b">
         <f>_xlfn.XOR(C26,C27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="b">
         <f>_xlfn.XOR(D26,D27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="b">
         <f>_xlfn.XOR(E26,E27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="b">
         <f>_xlfn.XOR(F26,F27)</f>
@@ -2742,7 +2817,7 @@
       </c>
       <c r="G29" s="2" t="b">
         <f>_xlfn.XOR(G26,G27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="b">
         <f>_xlfn.XOR(H26,H27)</f>
@@ -2753,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M29" s="4">
         <v>1</v>
@@ -2764,27 +2839,27 @@
       <c r="N29" s="4">
         <v>2</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="16">
         <v>7</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="str">
-        <f>DEC2HEX(I29+H29*2+G29*4+F29*8+E29*16+D29*32+C29*64+B29*128)</f>
-        <v>61</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>46</v>
+        <f t="shared" si="24"/>
+        <v>95</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="2" t="s">
@@ -2792,144 +2867,144 @@
       </c>
       <c r="B30" s="2" t="b">
         <f>_xlfn.XOR(B8,B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="b">
         <f>_xlfn.XOR(C8,C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="b">
         <f>_xlfn.XOR(D8,D9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="b">
         <f>_xlfn.XOR(E8,E9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="b">
         <f>_xlfn.XOR(F8,F9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="b">
         <f>_xlfn.XOR(G8,G9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="b">
         <f>_xlfn.XOR(H8,H9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="b">
         <f>_xlfn.XOR(I8,I9)</f>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="16">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="24"/>
+        <v>C2</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="T30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="15">
-        <v>3</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" t="str">
-        <f>DEC2HEX(I30+H30*2+G30*4+F30*8+E30*16+D30*32+C30*64+B30*128)</f>
-        <v>3C</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="b">
         <f>_xlfn.XOR(B10,B11)</f>
         <v>0</v>
       </c>
       <c r="C31" s="2" t="b">
         <f>_xlfn.XOR(C10,C11)</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="b">
         <f>_xlfn.XOR(D10,D11)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="b">
         <f>_xlfn.XOR(E10,E11)</f>
         <v>1</v>
       </c>
       <c r="F31" s="2" t="b">
         <f>_xlfn.XOR(F10,F11)</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="b">
         <f>_xlfn.XOR(G10,G11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="b">
         <f>_xlfn.XOR(H10,H11)</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="b">
         <f>_xlfn.XOR(I10,I11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="16">
+        <v>4</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O31" s="15">
-        <v>4</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" t="str">
-        <f>DEC2HEX(I31+H31*2+G31*4+F31*8+E31*16+D31*32+C31*64+B31*128)</f>
-        <v>7B</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
       <c r="X31" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -2944,17 +3019,17 @@
         <f>AND(C31,C30)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="2" t="b">
         <f>AND(D31,D30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="b">
         <f>AND(E31,E30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="b">
         <f>AND(F31,F30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2" t="b">
         <f>AND(G31,G30)</f>
@@ -2969,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
@@ -2980,32 +3055,32 @@
       <c r="N32" s="2">
         <v>4</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="16">
         <v>6</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q32" t="str">
-        <f>DEC2HEX(I32+H32*2+G32*4+F32*8+E32*16+D32*32+C32*64+B32*128)</f>
-        <v>38</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>46</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
       <c r="X32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -3014,19 +3089,19 @@
       </c>
       <c r="B33" s="2" t="b">
         <f>_xlfn.XOR(B30,B31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="b">
         <f>_xlfn.XOR(C30,C31)</f>
         <v>1</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="2" t="b">
         <f>_xlfn.XOR(D30,D31)</f>
         <v>0</v>
       </c>
       <c r="E33" s="2" t="b">
         <f>_xlfn.XOR(E30,E31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2" t="b">
         <f>_xlfn.XOR(F30,F31)</f>
@@ -3042,13 +3117,13 @@
       </c>
       <c r="I33" s="2" t="b">
         <f>_xlfn.XOR(I30,I31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M33" s="4">
         <v>3</v>
@@ -3056,32 +3131,32 @@
       <c r="N33" s="4">
         <v>4</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="16">
         <v>8</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="str">
-        <f>DEC2HEX(I33+H33*2+G33*4+F33*8+E33*16+D33*32+C33*64+B33*128)</f>
-        <v>47</v>
-      </c>
-      <c r="R33" s="14" t="s">
-        <v>46</v>
+        <f t="shared" si="24"/>
+        <v>D6</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
       <c r="X33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -3090,7 +3165,7 @@
       </c>
       <c r="B34" s="2" t="b">
         <f>_xlfn.XOR(B28,B32)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="b">
         <f>_xlfn.XOR(C28,C32)</f>
@@ -3098,7 +3173,7 @@
       </c>
       <c r="D34" s="2" t="b">
         <f>_xlfn.XOR(D28,D32)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="b">
         <f>_xlfn.XOR(E28,E32)</f>
@@ -3110,7 +3185,7 @@
       </c>
       <c r="G34" s="2" t="b">
         <f>_xlfn.XOR(G28,G32)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="b">
         <f>_xlfn.XOR(H28,H32)</f>
@@ -3121,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M34" s="4">
         <v>5</v>
@@ -3132,32 +3207,32 @@
       <c r="N34" s="4">
         <v>6</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="16">
         <v>9</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q34" t="str">
-        <f>DEC2HEX(I34+H34*2+G34*4+F34*8+E34*16+D34*32+C34*64+B34*128)</f>
-        <v>A6</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>17</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
       <c r="X34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -3166,11 +3241,11 @@
       </c>
       <c r="B35" s="2" t="b">
         <f>AND(B29,B33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="b">
         <f>AND(C29,C33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="b">
         <f>AND(D29,D33)</f>
@@ -3178,7 +3253,7 @@
       </c>
       <c r="E35" s="2" t="b">
         <f>AND(E29,E33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2" t="b">
         <f>AND(F29,F33)</f>
@@ -3186,7 +3261,7 @@
       </c>
       <c r="G35" s="2" t="b">
         <f>AND(G29,G33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="b">
         <f>AND(H29,H33)</f>
@@ -3194,13 +3269,13 @@
       </c>
       <c r="I35" s="2" t="b">
         <f>AND(I29,I33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M35" s="2">
         <v>7</v>
@@ -3208,29 +3283,29 @@
       <c r="N35" s="2">
         <v>8</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="16">
         <v>10</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q35" t="str">
-        <f>DEC2HEX(I35+H35*2+G35*4+F35*8+E35*16+D35*32+C35*64+B35*128)</f>
-        <v>41</v>
-      </c>
-      <c r="R35" s="14" t="s">
-        <v>17</v>
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
       <c r="X35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -3243,11 +3318,11 @@
       </c>
       <c r="C36" s="2" t="b">
         <f>_xlfn.XOR(C29,C33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="b">
         <f>_xlfn.XOR(D29,D33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="b">
         <f>_xlfn.XOR(E29,E33)</f>
@@ -3259,7 +3334,7 @@
       </c>
       <c r="G36" s="2" t="b">
         <f>_xlfn.XOR(G29,G33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2" t="b">
         <f>_xlfn.XOR(H29,H33)</f>
@@ -3267,13 +3342,13 @@
       </c>
       <c r="I36" s="2" t="b">
         <f>_xlfn.XOR(I29,I33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M36" s="4">
         <v>7</v>
@@ -3281,58 +3356,58 @@
       <c r="N36" s="4">
         <v>8</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="16">
         <v>11</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q36" t="str">
-        <f>DEC2HEX(I36+H36*2+G36*4+F36*8+E36*16+D36*32+C36*64+B36*128)</f>
-        <v>26</v>
-      </c>
-      <c r="R36" s="14" t="s">
-        <v>17</v>
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
       <c r="X36" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="Q37" t="str">
-        <f>DEC2HEX(I37+H37*2+G37*4+F37*8+E37*16+D37*32+C37*64+B37*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="14" t="s">
-        <v>65</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
     </row>
     <row r="38" ht="14.25">
       <c r="Q38" t="str">
-        <f>DEC2HEX(I38+H38*2+G38*4+F38*8+E38*16+D38*32+C38*64+B38*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="15"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
@@ -3354,7 +3429,7 @@
         <f>AND(E4,E5)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="2" t="b">
         <f>AND(F4,F5)</f>
         <v>0</v>
       </c>
@@ -3368,37 +3443,37 @@
       </c>
       <c r="I39" s="2" t="b">
         <f>AND(I4,I5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" s="15">
+        <v>42</v>
+      </c>
+      <c r="O39" s="16">
         <v>12</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q39" t="str">
-        <f>DEC2HEX(I39+H39*2+G39*4+F39*8+E39*16+D39*32+C39*64+B39*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="14"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="15"/>
       <c r="S39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U39" s="2"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
@@ -3412,7 +3487,7 @@
         <f>AND(C6,C7)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="b">
         <f>AND(D6,D7)</f>
         <v>0</v>
       </c>
@@ -3428,7 +3503,7 @@
         <f>AND(G6,G7)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="2" t="b">
         <f>AND(H6,H7)</f>
         <v>0</v>
       </c>
@@ -3437,38 +3512,38 @@
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="16">
+        <v>13</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O40" s="15">
-        <v>13</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" t="str">
-        <f>DEC2HEX(I40+H40*2+G40*4+F40*8+E40*16+D40*32+C40*64+B40*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="S40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
@@ -3507,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M41" s="2">
         <v>12</v>
@@ -3518,27 +3593,27 @@
       <c r="N41" s="2">
         <v>13</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O41" s="16">
         <v>16</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q41" t="str">
-        <f>DEC2HEX(I41+H41*2+G41*4+F41*8+E41*16+D41*32+C41*64+B41*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="14" t="s">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="2" t="s">
@@ -3574,13 +3649,13 @@
       </c>
       <c r="I42" s="2" t="b">
         <f>_xlfn.XOR(I39,I40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M42" s="4">
         <v>12</v>
@@ -3588,27 +3663,27 @@
       <c r="N42" s="4">
         <v>13</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="16">
         <v>18</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q42" t="str">
-        <f>DEC2HEX(I42+H42*2+G42*4+F42*8+E42*16+D42*32+C42*64+B42*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="14" t="s">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="2" t="s">
@@ -3618,11 +3693,11 @@
         <f>AND(B8,B9)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="2" t="b">
         <f>AND(C8,C9)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="2" t="b">
         <f>AND(D8,D9)</f>
         <v>0</v>
       </c>
@@ -3636,7 +3711,7 @@
       </c>
       <c r="G43" s="2" t="b">
         <f>AND(G8,G9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2" t="b">
         <f>AND(H8,H9)</f>
@@ -3647,45 +3722,45 @@
         <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="16">
+        <v>14</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O43" s="15">
-        <v>14</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" t="str">
-        <f>DEC2HEX(I43+H43*2+G43*4+F43*8+E43*16+D43*32+C43*64+B43*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="T43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U43" s="2"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="b">
         <f>AND(B10,B11)</f>
         <v>0</v>
       </c>
@@ -3693,19 +3768,19 @@
         <f>AND(C10,C11)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="2" t="b">
         <f>AND(D10,D11)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="2" t="b">
         <f>AND(E10,E11)</f>
         <v>0</v>
       </c>
       <c r="F44" s="2" t="b">
         <f>AND(F10,F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="b">
         <f>AND(G10,G11)</f>
         <v>0</v>
       </c>
@@ -3713,48 +3788,48 @@
         <f>AND(H10,H11)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="2" t="b">
         <f>AND(I10,I11)</f>
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O44" s="16">
+        <v>15</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O44" s="15">
-        <v>15</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" t="str">
-        <f>DEC2HEX(I44+H44*2+G44*4+F44*8+E44*16+D44*32+C44*64+B44*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="U44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" ht="14.25">
@@ -3769,7 +3844,7 @@
         <f>AND(C43,C44)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="b">
         <f>AND(D43,D44)</f>
         <v>0</v>
       </c>
@@ -3794,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M45" s="2">
         <v>14</v>
@@ -3805,30 +3880,30 @@
       <c r="N45" s="2">
         <v>15</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O45" s="16">
         <v>17</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q45" t="str">
-        <f>DEC2HEX(I45+H45*2+G45*4+F45*8+E45*16+D45*32+C45*64+B45*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="14" t="s">
-        <v>73</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="X45" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" ht="14.25">
@@ -3843,7 +3918,7 @@
         <f>_xlfn.XOR(C43,C44)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="2" t="b">
         <f>_xlfn.XOR(D43,D44)</f>
         <v>0</v>
       </c>
@@ -3853,11 +3928,11 @@
       </c>
       <c r="F46" s="2" t="b">
         <f>_xlfn.XOR(F43,F44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2" t="b">
         <f>_xlfn.XOR(G43,G44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="b">
         <f>_xlfn.XOR(H43,H44)</f>
@@ -3868,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M46" s="4">
         <v>14</v>
@@ -3879,30 +3954,30 @@
       <c r="N46" s="4">
         <v>15</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O46" s="16">
         <v>19</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q46" t="str">
-        <f>DEC2HEX(I46+H46*2+G46*4+F46*8+E46*16+D46*32+C46*64+B46*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="14" t="s">
-        <v>73</v>
+        <f t="shared" si="24"/>
+        <v>C</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="U46" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="X46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" ht="14.25">
@@ -3942,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M47" s="4">
         <v>16</v>
@@ -3953,30 +4028,30 @@
       <c r="N47" s="4">
         <v>17</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O47" s="16">
         <v>20</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q47" t="str">
-        <f>DEC2HEX(I47+H47*2+G47*4+F47*8+E47*16+D47*32+C47*64+B47*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R47" s="14" t="s">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X47" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -4016,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M48" s="2">
         <v>18</v>
@@ -4027,30 +4102,30 @@
       <c r="N48" s="2">
         <v>19</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O48" s="16">
         <v>21</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q48" t="str">
-        <f>DEC2HEX(I48+H48*2+G48*4+F48*8+E48*16+D48*32+C48*64+B48*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>85</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -4075,11 +4150,11 @@
       </c>
       <c r="F49" s="2" t="b">
         <f>_xlfn.XOR(F46,F42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2" t="b">
         <f>_xlfn.XOR(G46,G42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="b">
         <f>_xlfn.XOR(H46,H42)</f>
@@ -4087,13 +4162,13 @@
       </c>
       <c r="I49" s="2" t="b">
         <f>_xlfn.XOR(I46,I42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M49" s="4">
         <v>18</v>
@@ -4101,30 +4176,30 @@
       <c r="N49" s="4">
         <v>19</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O49" s="16">
         <v>22</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q49" t="str">
-        <f>DEC2HEX(I49+H49*2+G49*4+F49*8+E49*16+D49*32+C49*64+B49*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="14" t="s">
-        <v>85</v>
+        <f t="shared" si="24"/>
+        <v>D</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -4139,13 +4214,13 @@
       <c r="I50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="17"/>
+      <c r="O50" s="18"/>
       <c r="P50" s="2"/>
       <c r="Q50" t="str">
-        <f>DEC2HEX(I50+H50*2+G50*4+F50*8+E50*16+D50*32+C50*64+B50*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="14"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="15"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -4157,12 +4232,12 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="Q51" t="str">
-        <f>DEC2HEX(I51+H51*2+G51*4+F51*8+E51*16+D51*32+C51*64+B51*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R51" s="14"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="15"/>
       <c r="T51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -4171,7 +4246,7 @@
       </c>
       <c r="B52" s="2" t="b">
         <f>_xlfn.XOR(B34,B49)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="b">
         <f>_xlfn.XOR(C34,C49)</f>
@@ -4179,7 +4254,7 @@
       </c>
       <c r="D52" s="2" t="b">
         <f>_xlfn.XOR(D34,D49)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2" t="b">
         <f>_xlfn.XOR(E34,E49)</f>
@@ -4187,7 +4262,7 @@
       </c>
       <c r="F52" s="2" t="b">
         <f>_xlfn.XOR(F34,F49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="2" t="b">
         <f>_xlfn.XOR(G34,G49)</f>
@@ -4199,13 +4274,13 @@
       </c>
       <c r="I52" s="2" t="b">
         <f>_xlfn.XOR(I34,I49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M52" s="2">
         <v>9</v>
@@ -4213,30 +4288,30 @@
       <c r="N52" s="2">
         <v>22</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="16">
         <v>23</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q52" t="str">
-        <f>DEC2HEX(I52+H52*2+G52*4+F52*8+E52*16+D52*32+C52*64+B52*128)</f>
-        <v>A6</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>85</v>
+        <f t="shared" si="24"/>
+        <v>F</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -4249,23 +4324,23 @@
       </c>
       <c r="C53" s="2" t="b">
         <f>_xlfn.XOR(C52,C35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="b">
         <f>_xlfn.XOR(D52,D35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2" t="b">
         <f>_xlfn.XOR(E52,E35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="b">
         <f>_xlfn.XOR(F52,F35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2" t="b">
         <f>_xlfn.XOR(G52,G35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="b">
         <f>_xlfn.XOR(H52,H35)</f>
@@ -4276,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M53" s="4">
         <v>10</v>
@@ -4287,35 +4362,35 @@
       <c r="N53" s="4">
         <v>23</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O53" s="16">
         <v>24</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q53" t="str">
-        <f>DEC2HEX(I53+H53*2+G53*4+F53*8+E53*16+D53*32+C53*64+B53*128)</f>
-        <v>E7</v>
-      </c>
-      <c r="R53" s="14" t="s">
-        <v>85</v>
+        <f t="shared" si="24"/>
+        <v>9B</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -4328,11 +4403,11 @@
       </c>
       <c r="C54" s="2" t="b">
         <f>NOT(C36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="b">
         <f>NOT(D36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="b">
         <f>NOT(E36)</f>
@@ -4344,7 +4419,7 @@
       </c>
       <c r="G54" s="2" t="b">
         <f>NOT(G36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="b">
         <f>NOT(H36)</f>
@@ -4352,46 +4427,46 @@
       </c>
       <c r="I54" s="2" t="b">
         <f>NOT(I36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M54" s="2">
         <v>11</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O54" s="16">
         <v>25</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q54" t="str">
-        <f>DEC2HEX(I54+H54*2+G54*4+F54*8+E54*16+D54*32+C54*64+B54*128)</f>
-        <v>D9</v>
-      </c>
-      <c r="R54" s="14" t="s">
-        <v>85</v>
+        <f t="shared" si="24"/>
+        <v>BC</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -4404,7 +4479,7 @@
       </c>
       <c r="C55" s="2" t="b">
         <f>AND(C54,C53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="b">
         <f>AND(D54,D53)</f>
@@ -4412,11 +4487,11 @@
       </c>
       <c r="E55" s="2" t="b">
         <f>AND(E54,E53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="b">
         <f>AND(F54,F53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2" t="b">
         <f>AND(G54,G53)</f>
@@ -4428,13 +4503,13 @@
       </c>
       <c r="I55" s="2" t="b">
         <f>AND(I54,I53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M55" s="4">
         <v>24</v>
@@ -4442,35 +4517,35 @@
       <c r="N55" s="2">
         <v>25</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O55" s="16">
         <v>26</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q55" t="str">
-        <f>DEC2HEX(I55+H55*2+G55*4+F55*8+E55*16+D55*32+C55*64+B55*128)</f>
-        <v>C1</v>
-      </c>
-      <c r="R55" s="14" t="s">
-        <v>85</v>
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="14.25">
@@ -4510,43 +4585,43 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M56" s="2">
         <v>20</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O56" s="16">
         <v>27</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q56" t="str">
-        <f>DEC2HEX(I56+H56*2+G56*4+F56*8+E56*16+D56*32+C56*64+B56*128)</f>
+        <f t="shared" si="24"/>
         <v>FF</v>
       </c>
-      <c r="R56" s="14" t="s">
+      <c r="R56" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="U56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" ht="14.25">
@@ -4559,7 +4634,7 @@
       </c>
       <c r="C57" s="2" t="b">
         <f>AND(C56,C55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="b">
         <f>AND(D56,D55)</f>
@@ -4567,11 +4642,11 @@
       </c>
       <c r="E57" s="2" t="b">
         <f>AND(E56,E55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2" t="b">
         <f>AND(F56,F55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2" t="b">
         <f>AND(G56,G55)</f>
@@ -4583,13 +4658,13 @@
       </c>
       <c r="I57" s="2" t="b">
         <f>AND(I56,I55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M57" s="4">
         <v>26</v>
@@ -4597,35 +4672,35 @@
       <c r="N57" s="2">
         <v>27</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O57" s="16">
         <v>28</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q57" t="str">
-        <f>DEC2HEX(I57+H57*2+G57*4+F57*8+E57*16+D57*32+C57*64+B57*128)</f>
-        <v>C1</v>
-      </c>
-      <c r="R57" s="14" t="s">
-        <v>102</v>
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="R57" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -4665,43 +4740,43 @@
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M58" s="4">
         <v>21</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O58" s="16">
         <v>29</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q58" t="str">
-        <f>DEC2HEX(I58+H58*2+G58*4+F58*8+E58*16+D58*32+C58*64+B58*128)</f>
+        <f t="shared" si="24"/>
         <v>FF</v>
       </c>
-      <c r="R58" s="14" t="s">
-        <v>102</v>
+      <c r="R58" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="S58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="U58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" ht="14.25">
@@ -4714,7 +4789,7 @@
       </c>
       <c r="C59" s="2" t="b">
         <f>AND(C58,C57)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="b">
         <f>AND(D58,D57)</f>
@@ -4722,11 +4797,11 @@
       </c>
       <c r="E59" s="2" t="b">
         <f>AND(E58,E57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2" t="b">
         <f>AND(F58,F57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2" t="b">
         <f>AND(G58,G57)</f>
@@ -4738,13 +4813,13 @@
       </c>
       <c r="I59" s="2" t="b">
         <f>AND(I58,I57)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M59" s="4">
         <v>28</v>
@@ -4755,50 +4830,50 @@
       <c r="O59" s="2">
         <v>30</v>
       </c>
-      <c r="P59" s="18" t="s">
-        <v>109</v>
+      <c r="P59" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="Q59" t="str">
-        <f>DEC2HEX(I59+H59*2+G59*4+F59*8+E59*16+D59*32+C59*64+B59*128)</f>
-        <v>C1</v>
-      </c>
-      <c r="R59" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T59" s="18" t="s">
-        <v>108</v>
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T59" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="Q60" t="str">
-        <f>DEC2HEX(I60+H60*2+G60*4+F60*8+E60*16+D60*32+C60*64+B60*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R60" s="14"/>
-      <c r="T60" s="18"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="15"/>
+      <c r="T60" s="19"/>
     </row>
     <row r="61" ht="14.25">
       <c r="K61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M61" s="2">
         <v>25</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O61" s="16">
         <v>11</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q61" t="str">
-        <f>DEC2HEX(I61+H61*2+G61*4+F61*8+E61*16+D61*32+C61*64+B61*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="14"/>
-      <c r="T61" s="18"/>
+        <f>Q36</f>
+        <v>43</v>
+      </c>
+      <c r="R61" s="15"/>
+      <c r="T61" s="19"/>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="2" t="s">
@@ -4814,7 +4889,7 @@
       </c>
       <c r="D62" s="2" t="b">
         <f>AND(D36,D34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="b">
         <f>AND(E36,E34)</f>
@@ -4826,7 +4901,7 @@
       </c>
       <c r="G62" s="2" t="b">
         <f>AND(G36,G34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="b">
         <f>AND(H36,H34)</f>
@@ -4837,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M62" s="4">
         <v>9</v>
@@ -4848,30 +4923,30 @@
       <c r="N62" s="2">
         <v>11</v>
       </c>
-      <c r="O62" s="15">
+      <c r="O62" s="16">
         <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q62" t="str">
-        <f>DEC2HEX(I62+H62*2+G62*4+F62*8+E62*16+D62*32+C62*64+B62*128)</f>
-        <v>26</v>
-      </c>
-      <c r="R62" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T62" s="18"/>
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T62" s="19"/>
       <c r="U62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -4908,13 +4983,13 @@
       </c>
       <c r="I63" s="2" t="b">
         <f>AND(I49,I36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M63" s="4">
         <v>11</v>
@@ -4922,28 +4997,28 @@
       <c r="N63" s="4">
         <v>22</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O63" s="16">
         <v>32</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q63" t="str">
-        <f>DEC2HEX(I63+H63*2+G63*4+F63*8+E63*16+D63*32+C63*64+B63*128)</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T63" s="18"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T63" s="19"/>
       <c r="U63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y63" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" ht="14.25">
@@ -4960,7 +5035,7 @@
       </c>
       <c r="D64" s="2" t="b">
         <f>_xlfn.XOR(D63,D62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="b">
         <f>_xlfn.XOR(E63,E62)</f>
@@ -4972,7 +5047,7 @@
       </c>
       <c r="G64" s="2" t="b">
         <f>_xlfn.XOR(G63,G62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="b">
         <f>_xlfn.XOR(H63,H62)</f>
@@ -4980,13 +5055,13 @@
       </c>
       <c r="I64" s="2" t="b">
         <f>_xlfn.XOR(I63,I62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M64" s="4">
         <v>31</v>
@@ -4998,21 +5073,21 @@
         <v>33</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q64" t="str">
-        <f>DEC2HEX(I64+H64*2+G64*4+F64*8+E64*16+D64*32+C64*64+B64*128)</f>
-        <v>26</v>
-      </c>
-      <c r="R64" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T64" s="18"/>
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="R64" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T64" s="19"/>
       <c r="U64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" ht="14.25">
@@ -5029,7 +5104,7 @@
       </c>
       <c r="D65" s="2" t="b">
         <f>AND(D56,D64)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="b">
         <f>AND(E56,E64)</f>
@@ -5041,7 +5116,7 @@
       </c>
       <c r="G65" s="2" t="b">
         <f>AND(G56,G64)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="b">
         <f>AND(H56,H64)</f>
@@ -5049,13 +5124,13 @@
       </c>
       <c r="I65" s="2" t="b">
         <f>AND(I56,I64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M65" s="4">
         <v>33</v>
@@ -5066,28 +5141,119 @@
       <c r="O65" s="2">
         <v>35</v>
       </c>
-      <c r="P65" s="18" t="s">
-        <v>122</v>
+      <c r="P65" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="Q65" t="str">
-        <f>DEC2HEX(I65+H65*2+G65*4+F65*8+E65*16+D65*32+C65*64+B65*128)</f>
-        <v>26</v>
-      </c>
-      <c r="R65" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18" t="s">
-        <v>123</v>
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="R65" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="R66" s="14"/>
+      <c r="R66" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00A50063-00FD-4FA1-9667-008000C400E1}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF92D050"/>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B4 B12:H22 C4 D4 E4 F4 G4 H4 I4 B5 C5 D5 E5 F5 G5 H5 I5 B6 C6 D6 E6 F6 G6 H6 I6 B7 C7 D7 E7 F7 G7 H7 I7 B8 C8 D8 E8 F8 G8 H8 I8 B9 C9 D9 E9 F9 G9 H9 I9 B10 C10 D10 E10 F10 G10 H10 I10 B11 C11 D11 E11 F11 G11 H11 I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{007E0032-00BD-4880-A3AA-001F008500CF}">
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF92D050"/>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14 C14 D14 E14 F14 G14 H14 I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F70099-000B-468F-8680-00DE00790036}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B16:I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00920093-0064-4FB1-94E4-000C00690017}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B4 C4 D4 E4 F4 G4 H4 I4 B5 C5 D5 E5 F5 G5 H5 I5 B6 C6 D6 E6 F6 G6 H6 I6 B7 C7 D7 E7 F7 G7 H7 I7 B8 C8 D8 E8 F8 G8 H8 I8 B9 C9 D9 E9 F9 G9 H9 I9 B10 C10 D10 E10 F10 G10 H10 I10 B11 C11 D11 E11 F11 G11 H11 I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E0006F-00AB-4711-9A08-004800130028}">
+            <xm:f>0</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="2"/>
+                  <bgColor indexed="2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B14 C14 D14 E14 F14 G14 H14 I14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/help/Boolsche Logik.xlsx
+++ b/help/Boolsche Logik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>DEZ</t>
   </si>
@@ -62,12 +62,18 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>c</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>1b</t>
   </si>
   <si>
     <t>OLD</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>Stack</t>
   </si>
   <si>
@@ -86,10 +92,19 @@
     <t>cx</t>
   </si>
   <si>
+    <t>Reg</t>
+  </si>
+  <si>
     <t>AND-CALC</t>
   </si>
   <si>
+    <t>BH</t>
+  </si>
+  <si>
     <t>OR-CALC</t>
+  </si>
+  <si>
+    <t>BL</t>
   </si>
   <si>
     <t>NEW</t>
@@ -567,7 +582,7 @@
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="0" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -594,7 +609,10 @@
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1605,7 +1623,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00AE007D-00DD-4ED4-ADB4-006B009A005F}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00F4004A-000A-4C55-AC10-002200D80054}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <fill>
@@ -1619,7 +1637,7 @@
           <xm:sqref>B34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00B9009E-00FB-47AA-A1F8-002100D20004}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{003400EC-00E4-47ED-9184-003000910073}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <fill>
@@ -1633,7 +1651,7 @@
           <xm:sqref>B34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0047002D-0016-401B-8383-0047007900FD}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00C800A9-00B1-4791-A16D-008500BB00C0}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <fill>
@@ -1647,7 +1665,7 @@
           <xm:sqref>C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="equal" rank="0" text="" id="{00ED0058-0047-408E-BB18-00D0000C0067}">
+          <x14:cfRule type="cellIs" priority="2" aboveAverage="0" operator="equal" rank="0" text="" id="{00EC003C-0050-4197-B540-006C00750026}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1671,7 +1689,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="J1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="L8" zoomScale="100" workbookViewId="0">
       <selection activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1768,7 +1786,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B9" si="0">VALUE((MID($O4,1,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C9" si="1">VALUE((MID($O4,2,1)))</f>
@@ -1780,7 +1798,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E9" si="3">VALUE((MID($O4,4,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F9" si="4">VALUE((MID($O4,5,1)))</f>
@@ -1800,18 +1818,18 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" ref="L4:L9" si="8">SUM(B4:J4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M9" si="9">_xlfn.DECIMAL(N4,16)</f>
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2" t="str">
         <f t="shared" ref="O4:O9" si="10">DEC2BIN(M4,8)</f>
-        <v>00000001</v>
+        <v>10010001</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1828,7 +1846,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="3"/>
@@ -1848,7 +1866,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="8"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M5">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="N5" s="8">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22</v>
       </c>
       <c r="O5" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>00000011</v>
+        <v>00100010</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -1876,7 +1894,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="2"/>
@@ -1896,7 +1914,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="7"/>
@@ -1908,14 +1926,14 @@
       </c>
       <c r="M6">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="N6" s="8">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="N6" s="7">
+        <v>44</v>
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>00000110</v>
+        <v>01000100</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -1936,7 +1954,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="4"/>
@@ -1948,26 +1966,26 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <f t="shared" si="9"/>
-        <v>145</v>
-      </c>
-      <c r="N7" s="8">
-        <v>91</v>
+        <v>130</v>
+      </c>
+      <c r="N7" s="7">
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>10010001</v>
+        <v>10000010</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -1980,7 +1998,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="2"/>
@@ -1992,11 +2010,11 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="6"/>
@@ -2008,18 +2026,18 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="N8" s="8">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="N8" s="7">
+        <v>8</v>
       </c>
       <c r="O8" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>01000100</v>
+        <v>00001000</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -2028,7 +2046,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
@@ -2044,7 +2062,7 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="5"/>
@@ -2052,11 +2070,11 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="8"/>
@@ -2064,14 +2082,14 @@
       </c>
       <c r="M9">
         <f t="shared" si="9"/>
-        <v>134</v>
-      </c>
-      <c r="N9" s="7">
-        <v>86</v>
+        <v>13</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>10000110</v>
+        <v>00001101</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -2092,7 +2110,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" ref="E10:E11" si="14">VALUE((MID($O10,4,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10:F11" si="15">VALUE((MID($O10,5,1)))</f>
@@ -2100,30 +2118,30 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ref="G10:G11" si="16">VALUE((MID($O10,6,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ref="H10:H11" si="17">VALUE((MID($O10,7,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ref="I10:I11" si="18">VALUE((MID($O10,8,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L11" si="19">SUM(B10:J10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f t="shared" ref="M10:M11" si="20">_xlfn.DECIMAL(N10,16)</f>
-        <v>12</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="O10" s="2" t="str">
         <f t="shared" ref="O10:O22" si="21">DEC2BIN(M10,8)</f>
-        <v>00001100</v>
+        <v>00011011</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -2140,7 +2158,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="14"/>
@@ -2148,15 +2166,15 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="18"/>
@@ -2164,18 +2182,18 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>00011000</v>
+        <v>00110110</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -2192,23 +2210,23 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D4:D11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E4:E11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
         <f>SUM(F4:F11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <f>SUM(G4:G11)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
         <f>SUM(H4:H11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
         <f>SUM(I4:I11)</f>
@@ -2218,7 +2236,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <f>VALUE((MID($O14,1,1)))</f>
@@ -2230,7 +2248,7 @@
       </c>
       <c r="D14" s="3">
         <f>VALUE((MID($O14,3,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <f>VALUE((MID($O14,4,1)))</f>
@@ -2242,26 +2260,29 @@
       </c>
       <c r="G14" s="3">
         <f>VALUE((MID($O14,6,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <f>VALUE((MID($O14,7,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <f>VALUE((MID($O14,8,1)))</f>
         <v>0</v>
       </c>
+      <c r="L14" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="M14" s="2">
         <f>_xlfn.DECIMAL(N14,16)</f>
-        <v>34</v>
-      </c>
-      <c r="N14" s="3">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="N14" s="9">
+        <v>4</v>
       </c>
       <c r="O14" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>00100010</v>
+        <v>00000100</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -2278,15 +2299,15 @@
       </c>
       <c r="D16" s="2">
         <f>IF(D12=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f>IF(E12=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <f>IF(F12=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <f>IF(G12=2,1,0)</f>
@@ -2302,41 +2323,41 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" ref="M16:M22" si="22">I16+H16*2+G16*4+F16*8+E16*16+D16*32+C16*64+B16*128</f>
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" ref="N16:N22" si="23">DEC2HEX(M16)</f>
-        <v>98</v>
+        <v>A0</v>
       </c>
       <c r="O16" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>10011000</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="10">
+        <v>10100000</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="11">
         <v>5</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="11">
         <v>4</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="11">
         <v>3</v>
       </c>
-      <c r="V16" s="10">
+      <c r="V16" s="11">
         <v>2</v>
       </c>
-      <c r="W16" s="10">
-        <v>1</v>
-      </c>
-      <c r="X16" s="11">
+      <c r="W16" s="11">
+        <v>1</v>
+      </c>
+      <c r="X16" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <f>IF(B12=3,1,0)</f>
@@ -2352,19 +2373,19 @@
       </c>
       <c r="E17" s="2">
         <f>IF(E12=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <f>IF(F12=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <f>IF(G12=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <f>IF(H12=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <f>IF(I12=3,1,0)</f>
@@ -2372,35 +2393,40 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1D</v>
       </c>
       <c r="O17" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>00000011</v>
-      </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="13" t="s">
+        <v>00011101</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="V17" s="14" t="s">
         <v>22</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="P18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <f>B59*1</f>
@@ -2412,15 +2438,15 @@
       </c>
       <c r="D19" s="2">
         <f>D59*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <f>E59*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <f>F59*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f>G59*1</f>
@@ -2434,22 +2460,28 @@
         <f>I59*1</f>
         <v>0</v>
       </c>
+      <c r="L19" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="M19" s="2">
         <f t="shared" si="22"/>
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="N19" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>98</v>
+        <v>A0</v>
       </c>
       <c r="O19" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>10011000</v>
+        <v>10100000</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <f>B65*1</f>
@@ -2465,40 +2497,46 @@
       </c>
       <c r="E20" s="2">
         <f>E65*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <f>F65*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <f>G65*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <f>H65*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <f>I65*1</f>
         <v>1</v>
       </c>
+      <c r="L20" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="M20" s="2">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1D</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>00000011</v>
+        <v>00011101</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <f>B14*B19+B20</f>
@@ -2514,19 +2552,19 @@
       </c>
       <c r="E22" s="2">
         <f>E14*E19+E20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <f>F14*F19+F20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <f>G14*G19+G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <f>H14*H19+H20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <f>I14*I19+I20</f>
@@ -2534,56 +2572,56 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N22" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1D</v>
       </c>
       <c r="O22" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>00000011</v>
+        <v>00011101</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -2592,7 +2630,7 @@
       </c>
       <c r="B26" s="2" t="b">
         <f>_xlfn.XOR(B4,B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="b">
         <f>_xlfn.XOR(C4,C5)</f>
@@ -2600,11 +2638,11 @@
       </c>
       <c r="D26" s="2" t="b">
         <f>_xlfn.XOR(D4,D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="b">
         <f>_xlfn.XOR(E4,E5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="b">
         <f>_xlfn.XOR(F4,F5)</f>
@@ -2620,36 +2658,36 @@
       </c>
       <c r="I26" s="2" t="b">
         <f>_xlfn.XOR(I4,I5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="16">
+        <v>47</v>
+      </c>
+      <c r="O26" s="17">
         <v>1</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" ref="Q26:Q65" si="24">DEC2HEX(I26+H26*2+G26*4+F26*8+E26*16+D26*32+C26*64+B26*128)</f>
-        <v>2</v>
-      </c>
-      <c r="R26" s="15"/>
+        <v>B3</v>
+      </c>
+      <c r="R26" s="16"/>
       <c r="S26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
@@ -2661,7 +2699,7 @@
       </c>
       <c r="C27" s="2" t="b">
         <f>_xlfn.XOR(C6,C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="b">
         <f>_xlfn.XOR(D6,D7)</f>
@@ -2669,7 +2707,7 @@
       </c>
       <c r="E27" s="2" t="b">
         <f>_xlfn.XOR(E6,E7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="b">
         <f>_xlfn.XOR(F6,F7)</f>
@@ -2685,41 +2723,41 @@
       </c>
       <c r="I27" s="2" t="b">
         <f>_xlfn.XOR(I6,I7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="16">
+        <v>51</v>
+      </c>
+      <c r="O27" s="17">
         <v>2</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="24"/>
-        <v>97</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>40</v>
+        <v>C6</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="2" t="s">
@@ -2727,7 +2765,7 @@
       </c>
       <c r="B28" s="2" t="b">
         <f>AND(B26,B27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="b">
         <f>AND(C26,C27)</f>
@@ -2758,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
@@ -2769,27 +2807,27 @@
       <c r="N28" s="2">
         <v>2</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="17">
         <v>5</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="2" t="s">
@@ -2797,15 +2835,15 @@
       </c>
       <c r="B29" s="2" t="b">
         <f>_xlfn.XOR(B26,B27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="b">
         <f>_xlfn.XOR(C26,C27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="b">
         <f>_xlfn.XOR(D26,D27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="b">
         <f>_xlfn.XOR(E26,E27)</f>
@@ -2828,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M29" s="4">
         <v>1</v>
@@ -2839,27 +2877,27 @@
       <c r="N29" s="4">
         <v>2</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="17">
         <v>7</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="24"/>
-        <v>95</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="2" t="s">
@@ -2867,11 +2905,11 @@
       </c>
       <c r="B30" s="2" t="b">
         <f>_xlfn.XOR(B8,B9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="b">
         <f>_xlfn.XOR(C8,C9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="b">
         <f>_xlfn.XOR(D8,D9)</f>
@@ -2887,49 +2925,49 @@
       </c>
       <c r="G30" s="2" t="b">
         <f>_xlfn.XOR(G8,G9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="b">
         <f>_xlfn.XOR(H8,H9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="b">
         <f>_xlfn.XOR(I8,I9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O30" s="16">
+        <v>59</v>
+      </c>
+      <c r="O30" s="17">
         <v>3</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="24"/>
-        <v>C2</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="2" t="s">
@@ -2945,15 +2983,15 @@
       </c>
       <c r="D31" s="2" t="b">
         <f>_xlfn.XOR(D10,D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="b">
         <f>_xlfn.XOR(E10,E11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2" t="b">
         <f>_xlfn.XOR(F10,F11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2" t="b">
         <f>_xlfn.XOR(G10,G11)</f>
@@ -2965,46 +3003,46 @@
       </c>
       <c r="I31" s="2" t="b">
         <f>_xlfn.XOR(I10,I11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O31" s="16">
+        <v>63</v>
+      </c>
+      <c r="O31" s="17">
         <v>4</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>48</v>
+        <v>2D</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
       <c r="X31" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -3033,7 +3071,7 @@
       </c>
       <c r="G32" s="2" t="b">
         <f>AND(G31,G30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="b">
         <f>AND(H31,H30)</f>
@@ -3041,13 +3079,13 @@
       </c>
       <c r="I32" s="2" t="b">
         <f>AND(I31,I30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
@@ -3055,32 +3093,32 @@
       <c r="N32" s="2">
         <v>4</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="17">
         <v>6</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
       <c r="X32" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -3089,41 +3127,41 @@
       </c>
       <c r="B33" s="2" t="b">
         <f>_xlfn.XOR(B30,B31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="b">
         <f>_xlfn.XOR(C30,C31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="b">
         <f>_xlfn.XOR(D30,D31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="b">
         <f>_xlfn.XOR(E30,E31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="b">
         <f>_xlfn.XOR(F30,F31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2" t="b">
         <f>_xlfn.XOR(G30,G31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="b">
         <f>_xlfn.XOR(H30,H31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="b">
         <f>_xlfn.XOR(I30,I31)</f>
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M33" s="4">
         <v>3</v>
@@ -3131,32 +3169,32 @@
       <c r="N33" s="4">
         <v>4</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="17">
         <v>8</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="24"/>
-        <v>D6</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
       <c r="X33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -3165,7 +3203,7 @@
       </c>
       <c r="B34" s="2" t="b">
         <f>_xlfn.XOR(B28,B32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="b">
         <f>_xlfn.XOR(C28,C32)</f>
@@ -3185,7 +3223,7 @@
       </c>
       <c r="G34" s="2" t="b">
         <f>_xlfn.XOR(G28,G32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2" t="b">
         <f>_xlfn.XOR(H28,H32)</f>
@@ -3193,13 +3231,13 @@
       </c>
       <c r="I34" s="2" t="b">
         <f>_xlfn.XOR(I28,I32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M34" s="4">
         <v>5</v>
@@ -3207,32 +3245,32 @@
       <c r="N34" s="4">
         <v>6</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="17">
         <v>9</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
       <c r="X34" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -3241,7 +3279,7 @@
       </c>
       <c r="B35" s="2" t="b">
         <f>AND(B29,B33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2" t="b">
         <f>AND(C29,C33)</f>
@@ -3249,11 +3287,11 @@
       </c>
       <c r="D35" s="2" t="b">
         <f>AND(D29,D33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="b">
         <f>AND(E29,E33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="b">
         <f>AND(F29,F33)</f>
@@ -3261,7 +3299,7 @@
       </c>
       <c r="G35" s="2" t="b">
         <f>AND(G29,G33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="b">
         <f>AND(H29,H33)</f>
@@ -3272,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M35" s="2">
         <v>7</v>
@@ -3283,29 +3321,29 @@
       <c r="N35" s="2">
         <v>8</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="17">
         <v>10</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="24"/>
-        <v>94</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
       <c r="X35" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -3326,29 +3364,29 @@
       </c>
       <c r="E36" s="2" t="b">
         <f>_xlfn.XOR(E29,E33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2" t="b">
         <f>_xlfn.XOR(F29,F33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2" t="b">
         <f>_xlfn.XOR(G29,G33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2" t="b">
         <f>_xlfn.XOR(H29,H33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="b">
         <f>_xlfn.XOR(I29,I33)</f>
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M36" s="4">
         <v>7</v>
@@ -3356,29 +3394,29 @@
       <c r="N36" s="4">
         <v>8</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="17">
         <v>11</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="24"/>
-        <v>43</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>19</v>
+        <v>5D</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
       <c r="X36" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" ht="14.25">
@@ -3388,26 +3426,26 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>67</v>
+      <c r="R37" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
     </row>
     <row r="38" ht="14.25">
       <c r="Q38" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R38" s="15"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
+      <c r="R38" s="16"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
@@ -3443,37 +3481,37 @@
       </c>
       <c r="I39" s="2" t="b">
         <f>AND(I4,I5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O39" s="16">
+        <v>47</v>
+      </c>
+      <c r="O39" s="17">
         <v>12</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="R39" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="16"/>
       <c r="S39" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="U39" s="2"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
@@ -3512,38 +3550,38 @@
         <v>0</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="16">
+        <v>51</v>
+      </c>
+      <c r="O40" s="17">
         <v>13</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R40" s="15" t="s">
-        <v>71</v>
+      <c r="R40" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
@@ -3582,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M41" s="2">
         <v>12</v>
@@ -3593,27 +3631,27 @@
       <c r="N41" s="2">
         <v>13</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="17">
         <v>16</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R41" s="15" t="s">
-        <v>75</v>
+      <c r="R41" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="2" t="s">
@@ -3649,13 +3687,13 @@
       </c>
       <c r="I42" s="2" t="b">
         <f>_xlfn.XOR(I39,I40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M42" s="4">
         <v>12</v>
@@ -3663,27 +3701,27 @@
       <c r="N42" s="4">
         <v>13</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="17">
         <v>18</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="R42" s="15" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="2" t="s">
@@ -3707,11 +3745,11 @@
       </c>
       <c r="F43" s="2" t="b">
         <f>AND(F8,F9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2" t="b">
         <f>AND(G8,G9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="b">
         <f>AND(H8,H9)</f>
@@ -3722,39 +3760,39 @@
         <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" s="16">
+        <v>59</v>
+      </c>
+      <c r="O43" s="17">
         <v>14</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="R43" s="15" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U43" s="2"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2" t="s">
@@ -3774,11 +3812,11 @@
       </c>
       <c r="E44" s="2" t="b">
         <f>AND(E10,E11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2" t="b">
         <f>AND(F10,F11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2" t="b">
         <f>AND(G10,G11)</f>
@@ -3786,50 +3824,50 @@
       </c>
       <c r="H44" s="2" t="b">
         <f>AND(H10,H11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="b">
         <f>AND(I10,I11)</f>
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O44" s="16">
+        <v>63</v>
+      </c>
+      <c r="O44" s="17">
         <v>15</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="R44" s="15" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
       <c r="X44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" ht="14.25">
@@ -3869,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M45" s="2">
         <v>14</v>
@@ -3880,30 +3918,30 @@
       <c r="N45" s="2">
         <v>15</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45" s="17">
         <v>17</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R45" s="15" t="s">
-        <v>75</v>
+      <c r="R45" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" ht="14.25">
@@ -3924,7 +3962,7 @@
       </c>
       <c r="E46" s="2" t="b">
         <f>_xlfn.XOR(E43,E44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2" t="b">
         <f>_xlfn.XOR(F43,F44)</f>
@@ -3932,21 +3970,21 @@
       </c>
       <c r="G46" s="2" t="b">
         <f>_xlfn.XOR(G43,G44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="b">
         <f>_xlfn.XOR(H43,H44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="b">
         <f>_xlfn.XOR(I43,I44)</f>
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M46" s="4">
         <v>14</v>
@@ -3954,30 +3992,30 @@
       <c r="N46" s="4">
         <v>15</v>
       </c>
-      <c r="O46" s="16">
+      <c r="O46" s="17">
         <v>19</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="24"/>
-        <v>C</v>
-      </c>
-      <c r="R46" s="15" t="s">
-        <v>75</v>
+        <v>1A</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="14.25">
@@ -4017,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M47" s="4">
         <v>16</v>
@@ -4028,30 +4066,30 @@
       <c r="N47" s="4">
         <v>17</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47" s="17">
         <v>20</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R47" s="15" t="s">
-        <v>87</v>
+      <c r="R47" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -4091,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M48" s="2">
         <v>18</v>
@@ -4102,30 +4140,30 @@
       <c r="N48" s="2">
         <v>19</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O48" s="17">
         <v>21</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R48" s="15" t="s">
-        <v>87</v>
+      <c r="R48" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -4146,7 +4184,7 @@
       </c>
       <c r="E49" s="2" t="b">
         <f>_xlfn.XOR(E46,E42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2" t="b">
         <f>_xlfn.XOR(F46,F42)</f>
@@ -4154,21 +4192,21 @@
       </c>
       <c r="G49" s="2" t="b">
         <f>_xlfn.XOR(G46,G42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="b">
         <f>_xlfn.XOR(H46,H42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2" t="b">
         <f>_xlfn.XOR(I46,I42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M49" s="4">
         <v>18</v>
@@ -4176,30 +4214,30 @@
       <c r="N49" s="4">
         <v>19</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O49" s="17">
         <v>22</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="24"/>
-        <v>D</v>
-      </c>
-      <c r="R49" s="15" t="s">
-        <v>87</v>
+        <v>1A</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -4214,13 +4252,13 @@
       <c r="I50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="18"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="2"/>
       <c r="Q50" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R50" s="15"/>
+      <c r="R50" s="16"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -4235,9 +4273,9 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R51" s="15"/>
+      <c r="R51" s="16"/>
       <c r="T51" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -4246,7 +4284,7 @@
       </c>
       <c r="B52" s="2" t="b">
         <f>_xlfn.XOR(B34,B49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2" t="b">
         <f>_xlfn.XOR(C34,C49)</f>
@@ -4258,7 +4296,7 @@
       </c>
       <c r="E52" s="2" t="b">
         <f>_xlfn.XOR(E34,E49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2" t="b">
         <f>_xlfn.XOR(F34,F49)</f>
@@ -4270,17 +4308,17 @@
       </c>
       <c r="H52" s="2" t="b">
         <f>_xlfn.XOR(H34,H49)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="b">
         <f>_xlfn.XOR(I34,I49)</f>
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M52" s="2">
         <v>9</v>
@@ -4288,30 +4326,30 @@
       <c r="N52" s="2">
         <v>22</v>
       </c>
-      <c r="O52" s="16">
+      <c r="O52" s="17">
         <v>23</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="24"/>
-        <v>F</v>
-      </c>
-      <c r="R52" s="15" t="s">
-        <v>87</v>
+        <v>9D</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -4328,7 +4366,7 @@
       </c>
       <c r="D53" s="2" t="b">
         <f>_xlfn.XOR(D52,D35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="b">
         <f>_xlfn.XOR(E52,E35)</f>
@@ -4340,21 +4378,21 @@
       </c>
       <c r="G53" s="2" t="b">
         <f>_xlfn.XOR(G52,G35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="b">
         <f>_xlfn.XOR(H52,H35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="b">
         <f>_xlfn.XOR(I52,I35)</f>
         <v>1</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M53" s="4">
         <v>10</v>
@@ -4362,35 +4400,35 @@
       <c r="N53" s="4">
         <v>23</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O53" s="17">
         <v>24</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="24"/>
-        <v>9B</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>87</v>
+        <v>BD</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U53" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -4411,62 +4449,62 @@
       </c>
       <c r="E54" s="2" t="b">
         <f>NOT(E36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="b">
         <f>NOT(F36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2" t="b">
         <f>NOT(G36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="b">
         <f>NOT(H36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2" t="b">
         <f>NOT(I36)</f>
         <v>0</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M54" s="2">
         <v>11</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O54" s="17">
         <v>25</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="24"/>
-        <v>BC</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>87</v>
+        <v>A2</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U54" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -4483,15 +4521,15 @@
       </c>
       <c r="D55" s="2" t="b">
         <f>AND(D54,D53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2" t="b">
         <f>AND(E54,E53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="b">
         <f>AND(F54,F53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2" t="b">
         <f>AND(G54,G53)</f>
@@ -4506,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M55" s="4">
         <v>24</v>
@@ -4517,35 +4555,35 @@
       <c r="N55" s="2">
         <v>25</v>
       </c>
-      <c r="O55" s="16">
+      <c r="O55" s="17">
         <v>26</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="24"/>
-        <v>98</v>
-      </c>
-      <c r="R55" s="15" t="s">
-        <v>87</v>
+        <v>A0</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" ht="14.25">
@@ -4585,43 +4623,43 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M56" s="2">
         <v>20</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O56" s="17">
         <v>27</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="24"/>
         <v>FF</v>
       </c>
-      <c r="R56" s="15" t="s">
-        <v>104</v>
+      <c r="R56" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" ht="14.25">
@@ -4638,15 +4676,15 @@
       </c>
       <c r="D57" s="2" t="b">
         <f>AND(D56,D55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="b">
         <f>AND(E56,E55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="b">
         <f>AND(F56,F55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2" t="b">
         <f>AND(G56,G55)</f>
@@ -4661,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M57" s="4">
         <v>26</v>
@@ -4672,35 +4710,35 @@
       <c r="N57" s="2">
         <v>27</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="17">
         <v>28</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="24"/>
-        <v>98</v>
-      </c>
-      <c r="R57" s="15" t="s">
-        <v>104</v>
+        <v>A0</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -4740,43 +4778,43 @@
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M58" s="4">
         <v>21</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O58" s="17">
         <v>29</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="24"/>
         <v>FF</v>
       </c>
-      <c r="R58" s="15" t="s">
-        <v>104</v>
+      <c r="R58" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="14.25">
@@ -4793,15 +4831,15 @@
       </c>
       <c r="D59" s="2" t="b">
         <f>AND(D58,D57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2" t="b">
         <f>AND(E58,E57)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="b">
         <f>AND(F58,F57)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2" t="b">
         <f>AND(G58,G57)</f>
@@ -4816,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M59" s="4">
         <v>28</v>
@@ -4830,18 +4868,18 @@
       <c r="O59" s="2">
         <v>30</v>
       </c>
-      <c r="P59" s="19" t="s">
-        <v>111</v>
+      <c r="P59" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="24"/>
-        <v>98</v>
-      </c>
-      <c r="R59" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="T59" s="19" t="s">
-        <v>110</v>
+        <v>A0</v>
+      </c>
+      <c r="R59" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T59" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -4849,31 +4887,31 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R60" s="15"/>
-      <c r="T60" s="19"/>
+      <c r="R60" s="16"/>
+      <c r="T60" s="20"/>
     </row>
     <row r="61" ht="14.25">
       <c r="K61" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M61" s="2">
         <v>25</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="17">
         <v>11</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q61" t="str">
         <f>Q36</f>
-        <v>43</v>
-      </c>
-      <c r="R61" s="15"/>
-      <c r="T61" s="19"/>
+        <v>5D</v>
+      </c>
+      <c r="R61" s="16"/>
+      <c r="T61" s="20"/>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="2" t="s">
@@ -4901,21 +4939,21 @@
       </c>
       <c r="G62" s="2" t="b">
         <f>AND(G36,G34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2" t="b">
         <f>AND(H36,H34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="b">
         <f>AND(I36,I34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M62" s="4">
         <v>9</v>
@@ -4923,30 +4961,30 @@
       <c r="N62" s="2">
         <v>11</v>
       </c>
-      <c r="O62" s="16">
+      <c r="O62" s="17">
         <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="R62" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="T62" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="R62" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T62" s="20"/>
       <c r="U62" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -4967,11 +5005,11 @@
       </c>
       <c r="E63" s="2" t="b">
         <f>AND(E49,E36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="2" t="b">
         <f>AND(F49,F36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2" t="b">
         <f>AND(G49,G36)</f>
@@ -4983,13 +5021,13 @@
       </c>
       <c r="I63" s="2" t="b">
         <f>AND(I49,I36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M63" s="4">
         <v>11</v>
@@ -4997,28 +5035,28 @@
       <c r="N63" s="4">
         <v>22</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="17">
         <v>32</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="R63" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="T63" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="R63" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T63" s="20"/>
       <c r="U63" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Y63" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" ht="14.25">
@@ -5039,29 +5077,29 @@
       </c>
       <c r="E64" s="2" t="b">
         <f>_xlfn.XOR(E63,E62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2" t="b">
         <f>_xlfn.XOR(F63,F62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2" t="b">
         <f>_xlfn.XOR(G63,G62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="2" t="b">
         <f>_xlfn.XOR(H63,H62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2" t="b">
         <f>_xlfn.XOR(I63,I62)</f>
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M64" s="4">
         <v>31</v>
@@ -5073,21 +5111,21 @@
         <v>33</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="R64" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="T64" s="19"/>
+        <v>1D</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T64" s="20"/>
       <c r="U64" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" ht="14.25">
@@ -5108,29 +5146,29 @@
       </c>
       <c r="E65" s="2" t="b">
         <f>AND(E56,E64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="2" t="b">
         <f>AND(F56,F64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2" t="b">
         <f>AND(G56,G64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="b">
         <f>AND(H56,H64)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="b">
         <f>AND(I56,I64)</f>
         <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M65" s="4">
         <v>33</v>
@@ -5141,23 +5179,23 @@
       <c r="O65" s="2">
         <v>35</v>
       </c>
-      <c r="P65" s="19" t="s">
-        <v>124</v>
+      <c r="P65" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="R65" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19" t="s">
-        <v>125</v>
+        <v>1D</v>
+      </c>
+      <c r="R65" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="R66" s="15"/>
+      <c r="R66" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -5168,7 +5206,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00A50063-00FD-4FA1-9667-008000C400E1}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00DB0072-0093-4468-AC7C-0048005E0029}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -5185,7 +5223,7 @@
           <xm:sqref>B4 B12:H22 C4 D4 E4 F4 G4 H4 I4 B5 C5 D5 E5 F5 G5 H5 I5 B6 C6 D6 E6 F6 G6 H6 I6 B7 C7 D7 E7 F7 G7 H7 I7 B8 C8 D8 E8 F8 G8 H8 I8 B9 C9 D9 E9 F9 G9 H9 I9 B10 C10 D10 E10 F10 G10 H10 I10 B11 C11 D11 E11 F11 G11 H11 I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{007E0032-00BD-4880-A3AA-001F008500CF}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00470046-00BF-4F87-B7D8-00D300A30024}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -5202,7 +5240,7 @@
           <xm:sqref>B14 C14 D14 E14 F14 G14 H14 I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F70099-000B-468F-8680-00DE00790036}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00A300D4-00BF-4E7C-86AB-001600CB007A}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -5219,7 +5257,7 @@
           <xm:sqref>B16:I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00920093-0064-4FB1-94E4-000C00690017}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BA00B8-00E6-4D91-B336-00A900410034}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -5236,7 +5274,7 @@
           <xm:sqref>B4 C4 D4 E4 F4 G4 H4 I4 B5 C5 D5 E5 F5 G5 H5 I5 B6 C6 D6 E6 F6 G6 H6 I6 B7 C7 D7 E7 F7 G7 H7 I7 B8 C8 D8 E8 F8 G8 H8 I8 B9 C9 D9 E9 F9 G9 H9 I9 B10 C10 D10 E10 F10 G10 H10 I10 B11 C11 D11 E11 F11 G11 H11 I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E0006F-00AB-4711-9A08-004800130028}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B70088-00AB-4F93-9D9A-003900000044}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
